--- a/文档备份/数据字典模板/6.ADS - 数据字典.xlsx
+++ b/文档备份/数据字典模板/6.ADS - 数据字典.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\数据字典模板\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\数据字典模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8EC0FBB-FB31-4CAA-AB08-89AC143428B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C06356-62AA-49AD-8FE5-E652830D82E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="536" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -195,9 +195,6 @@
     <t>表空间</t>
   </si>
   <si>
-    <t>索引</t>
-  </si>
-  <si>
     <t>描述</t>
   </si>
   <si>
@@ -632,6 +629,9 @@
   <si>
     <t>ads_brand</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>分区键</t>
   </si>
 </sst>
 </file>
@@ -1429,7 +1429,7 @@
     </row>
     <row r="2" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
@@ -1438,13 +1438,13 @@
         <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="F2" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>14</v>
@@ -1470,12 +1470,12 @@
     )</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B3" s="8" t="s">
         <v>12</v>
@@ -1484,13 +1484,13 @@
         <v>13</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>14</v>
@@ -1516,12 +1516,12 @@
     )</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B4" s="8" t="s">
         <v>12</v>
@@ -1530,13 +1530,13 @@
         <v>13</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>14</v>
@@ -1562,12 +1562,12 @@
     )</v>
       </c>
       <c r="L4" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="8" t="s">
         <v>12</v>
@@ -1576,7 +1576,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
@@ -1598,12 +1598,12 @@
     )</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>12</v>
@@ -1612,7 +1612,7 @@
         <v>13</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="14"/>
@@ -1634,12 +1634,12 @@
     )</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B7" s="8" t="s">
         <v>12</v>
@@ -1648,7 +1648,7 @@
         <v>13</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="14"/>
@@ -1670,12 +1670,12 @@
     )</v>
       </c>
       <c r="L7" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>12</v>
@@ -1684,7 +1684,7 @@
         <v>13</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="14"/>
@@ -1706,12 +1706,12 @@
     )</v>
       </c>
       <c r="L8" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>12</v>
@@ -1720,7 +1720,7 @@
         <v>13</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E9" s="14"/>
       <c r="F9" s="9"/>
@@ -1747,7 +1747,7 @@
     </row>
     <row r="10" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>12</v>
@@ -1756,7 +1756,7 @@
         <v>13</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E10" s="14"/>
       <c r="F10" s="9"/>
@@ -1783,7 +1783,7 @@
     </row>
     <row r="11" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>12</v>
@@ -1792,7 +1792,7 @@
         <v>13</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E11" s="14"/>
       <c r="F11" s="9"/>
@@ -1819,7 +1819,7 @@
     </row>
     <row r="12" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>12</v>
@@ -1828,7 +1828,7 @@
         <v>13</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="14"/>
       <c r="F12" s="9"/>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="13" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>12</v>
@@ -1864,7 +1864,7 @@
         <v>13</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="9"/>
@@ -1891,7 +1891,7 @@
     </row>
     <row r="14" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>12</v>
@@ -1900,7 +1900,7 @@
         <v>13</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E14" s="9"/>
       <c r="F14" s="9"/>
@@ -1927,7 +1927,7 @@
     </row>
     <row r="15" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B15" s="8" t="s">
         <v>12</v>
@@ -1936,7 +1936,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E15" s="15"/>
       <c r="F15" s="9"/>
@@ -1963,7 +1963,7 @@
     </row>
     <row r="16" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B16" s="8" t="s">
         <v>12</v>
@@ -1972,7 +1972,7 @@
         <v>13</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="9"/>
@@ -1999,7 +1999,7 @@
     </row>
     <row r="17" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B17" s="8" t="s">
         <v>12</v>
@@ -2008,7 +2008,7 @@
         <v>13</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E17" s="13"/>
       <c r="F17" s="9"/>
@@ -2035,7 +2035,7 @@
     </row>
     <row r="18" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>12</v>
@@ -2044,7 +2044,7 @@
         <v>13</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="9"/>
@@ -2071,7 +2071,7 @@
     </row>
     <row r="19" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>12</v>
@@ -2080,7 +2080,7 @@
         <v>13</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="9"/>
@@ -2107,7 +2107,7 @@
     </row>
     <row r="20" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B20" s="8" t="s">
         <v>12</v>
@@ -2116,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E20" s="14"/>
       <c r="F20" s="9"/>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="21" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B21" s="8" t="s">
         <v>12</v>
@@ -2152,7 +2152,7 @@
         <v>13</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E21" s="14"/>
       <c r="F21" s="9"/>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="22" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B22" s="8" t="s">
         <v>12</v>
@@ -2188,7 +2188,7 @@
         <v>13</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E22" s="14"/>
       <c r="F22" s="9"/>
@@ -2215,7 +2215,7 @@
     </row>
     <row r="23" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>12</v>
@@ -2224,7 +2224,7 @@
         <v>13</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E23" s="14"/>
       <c r="F23" s="9"/>
@@ -2251,7 +2251,7 @@
     </row>
     <row r="24" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="8" t="s">
         <v>12</v>
@@ -2260,7 +2260,7 @@
         <v>13</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E24" s="9"/>
       <c r="F24" s="9"/>
@@ -2287,7 +2287,7 @@
     </row>
     <row r="25" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B25" s="8" t="s">
         <v>12</v>
@@ -2296,7 +2296,7 @@
         <v>13</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E25" s="9"/>
       <c r="F25" s="9"/>
@@ -2323,7 +2323,7 @@
     </row>
     <row r="26" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B26" s="8" t="s">
         <v>12</v>
@@ -2332,7 +2332,7 @@
         <v>13</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
@@ -2359,7 +2359,7 @@
     </row>
     <row r="27" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B27" s="8" t="s">
         <v>12</v>
@@ -2368,7 +2368,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -2395,7 +2395,7 @@
     </row>
     <row r="28" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B28" s="8" t="s">
         <v>12</v>
@@ -2404,7 +2404,7 @@
         <v>13</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="29" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B29" s="8" t="s">
         <v>12</v>
@@ -2440,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="30" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>12</v>
@@ -2476,7 +2476,7 @@
         <v>13</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -2503,7 +2503,7 @@
     </row>
     <row r="31" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>12</v>
@@ -2512,7 +2512,7 @@
         <v>13</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="32" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B32" s="8" t="s">
         <v>12</v>
@@ -2548,7 +2548,7 @@
         <v>13</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -2575,7 +2575,7 @@
     </row>
     <row r="33" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B33" s="8" t="s">
         <v>12</v>
@@ -2584,7 +2584,7 @@
         <v>13</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -2611,7 +2611,7 @@
     </row>
     <row r="34" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B34" s="8" t="s">
         <v>12</v>
@@ -2620,7 +2620,7 @@
         <v>13</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B35" s="8" t="s">
         <v>12</v>
@@ -2656,7 +2656,7 @@
         <v>13</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
@@ -2683,7 +2683,7 @@
     </row>
     <row r="36" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B36" s="8" t="s">
         <v>12</v>
@@ -2692,7 +2692,7 @@
         <v>13</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="37" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B37" s="8" t="s">
         <v>12</v>
@@ -2728,7 +2728,7 @@
         <v>13</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="38" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="8" t="s">
         <v>12</v>
@@ -2764,7 +2764,7 @@
         <v>13</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -2791,7 +2791,7 @@
     </row>
     <row r="39" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B39" s="8" t="s">
         <v>12</v>
@@ -2800,7 +2800,7 @@
         <v>13</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
@@ -2827,7 +2827,7 @@
     </row>
     <row r="40" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B40" s="8" t="s">
         <v>12</v>
@@ -2836,7 +2836,7 @@
         <v>13</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
@@ -2863,7 +2863,7 @@
     </row>
     <row r="41" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="20" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B41" s="8" t="s">
         <v>12</v>
@@ -2872,7 +2872,7 @@
         <v>13</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
@@ -2899,7 +2899,7 @@
     </row>
     <row r="42" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B42" s="8" t="s">
         <v>12</v>
@@ -2908,7 +2908,7 @@
         <v>13</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
@@ -2935,7 +2935,7 @@
     </row>
     <row r="43" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B43" s="8" t="s">
         <v>12</v>
@@ -2944,7 +2944,7 @@
         <v>13</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
@@ -2971,7 +2971,7 @@
     </row>
     <row r="44" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B44" s="8" t="s">
         <v>12</v>
@@ -2980,7 +2980,7 @@
         <v>13</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="45" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B45" s="8" t="s">
         <v>12</v>
@@ -3016,7 +3016,7 @@
         <v>13</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
@@ -3043,7 +3043,7 @@
     </row>
     <row r="46" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="8" t="s">
         <v>12</v>
@@ -3052,7 +3052,7 @@
         <v>13</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="47" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B47" s="8" t="s">
         <v>12</v>
@@ -3088,7 +3088,7 @@
         <v>13</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
@@ -3115,7 +3115,7 @@
     </row>
     <row r="48" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>12</v>
@@ -3124,7 +3124,7 @@
         <v>13</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
@@ -3151,7 +3151,7 @@
     </row>
     <row r="49" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B49" s="8" t="s">
         <v>12</v>
@@ -3160,7 +3160,7 @@
         <v>13</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
@@ -3187,7 +3187,7 @@
     </row>
     <row r="50" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B50" s="8" t="s">
         <v>12</v>
@@ -3196,7 +3196,7 @@
         <v>13</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="51" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B51" s="8" t="s">
         <v>12</v>
@@ -3232,7 +3232,7 @@
         <v>13</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
@@ -3259,7 +3259,7 @@
     </row>
     <row r="52" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B52" s="8" t="s">
         <v>12</v>
@@ -3268,7 +3268,7 @@
         <v>13</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="53" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B53" s="8" t="s">
         <v>12</v>
@@ -3304,7 +3304,7 @@
         <v>13</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
@@ -3331,7 +3331,7 @@
     </row>
     <row r="54" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B54" s="8" t="s">
         <v>12</v>
@@ -3340,7 +3340,7 @@
         <v>13</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -3367,7 +3367,7 @@
     </row>
     <row r="55" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B55" s="8" t="s">
         <v>12</v>
@@ -3376,7 +3376,7 @@
         <v>13</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
@@ -3403,7 +3403,7 @@
     </row>
     <row r="56" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B56" s="8" t="s">
         <v>12</v>
@@ -3412,7 +3412,7 @@
         <v>13</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
@@ -3439,7 +3439,7 @@
     </row>
     <row r="57" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="20" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B57" s="8" t="s">
         <v>12</v>
@@ -3448,7 +3448,7 @@
         <v>13</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
@@ -3475,7 +3475,7 @@
     </row>
     <row r="58" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58" s="8" t="s">
         <v>12</v>
@@ -3484,7 +3484,7 @@
         <v>13</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E58" s="9"/>
       <c r="F58" s="9"/>
@@ -3511,7 +3511,7 @@
     </row>
     <row r="59" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B59" s="8" t="s">
         <v>12</v>
@@ -3520,7 +3520,7 @@
         <v>13</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E59" s="9"/>
       <c r="F59" s="9"/>
@@ -3547,7 +3547,7 @@
     </row>
     <row r="60" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B60" s="8" t="s">
         <v>12</v>
@@ -3556,7 +3556,7 @@
         <v>13</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E60" s="9"/>
       <c r="F60" s="9"/>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="61" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B61" s="8" t="s">
         <v>12</v>
@@ -3592,7 +3592,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -3619,7 +3619,7 @@
     </row>
     <row r="62" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B62" s="8" t="s">
         <v>12</v>
@@ -3628,7 +3628,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -3655,7 +3655,7 @@
     </row>
     <row r="63" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="20" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B63" s="8" t="s">
         <v>12</v>
@@ -3664,7 +3664,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="64" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="20" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B64" s="8" t="s">
         <v>12</v>
@@ -3700,7 +3700,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E64" s="9"/>
       <c r="F64" s="9"/>
@@ -3727,7 +3727,7 @@
     </row>
     <row r="65" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B65" s="8" t="s">
         <v>12</v>
@@ -3736,7 +3736,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
@@ -3763,7 +3763,7 @@
     </row>
     <row r="66" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B66" s="8" t="s">
         <v>12</v>
@@ -3772,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
@@ -3799,7 +3799,7 @@
     </row>
     <row r="67" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B67" s="8" t="s">
         <v>12</v>
@@ -3808,7 +3808,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E67" s="9"/>
       <c r="F67" s="9"/>
@@ -3835,7 +3835,7 @@
     </row>
     <row r="68" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="20" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B68" s="8" t="s">
         <v>12</v>
@@ -3844,7 +3844,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="69" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="20" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B69" s="8" t="s">
         <v>12</v>
@@ -3880,7 +3880,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
@@ -3907,7 +3907,7 @@
     </row>
     <row r="70" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B70" s="8" t="s">
         <v>12</v>
@@ -3916,7 +3916,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E70" s="9"/>
       <c r="F70" s="9"/>
@@ -3943,7 +3943,7 @@
     </row>
     <row r="71" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B71" s="8" t="s">
         <v>12</v>
@@ -3952,7 +3952,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -3979,7 +3979,7 @@
     </row>
     <row r="72" spans="1:12" s="3" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="20" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B72" s="8" t="s">
         <v>12</v>
@@ -3988,7 +3988,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E72" s="9"/>
       <c r="F72" s="9"/>
@@ -4084,7 +4084,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4115,14 +4115,14 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="31"/>
@@ -4142,22 +4142,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>11</v>
@@ -4168,22 +4168,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="D7" s="17" t="s">
-        <v>65</v>
-      </c>
       <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17" t="s">
-        <v>32</v>
-      </c>
       <c r="G7" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4191,19 +4191,19 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>68</v>
-      </c>
       <c r="E8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="17"/>
     </row>
@@ -4212,22 +4212,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G9" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4235,22 +4235,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>73</v>
-      </c>
       <c r="E10" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G10" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G10" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4258,22 +4258,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="C11" s="17" t="s">
-        <v>75</v>
-      </c>
       <c r="D11" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F11" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4281,22 +4281,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>78</v>
-      </c>
       <c r="E12" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F12" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4304,19 +4304,19 @@
         <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="G13" s="17"/>
     </row>
@@ -4325,22 +4325,22 @@
         <v>8</v>
       </c>
       <c r="B14" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="D14" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="27" t="s">
+      <c r="E14" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -4348,22 +4348,22 @@
         <v>9</v>
       </c>
       <c r="B15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="D15" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4404,7 +4404,7 @@
       <selection activeCell="B37" sqref="B37"/>
       <selection pane="topRight" activeCell="B37" sqref="B37"/>
       <selection pane="bottomLeft" activeCell="B37" sqref="B37"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1:H2"/>
+      <selection pane="bottomRight" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4433,7 +4433,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4464,14 +4464,14 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="31"/>
@@ -4491,22 +4491,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>11</v>
@@ -4517,22 +4517,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>80</v>
-      </c>
       <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4540,22 +4540,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="D8" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="D8" s="17" t="s">
-        <v>83</v>
-      </c>
       <c r="E8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F8" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="G8" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4563,22 +4563,22 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C9" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="D9" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="D9" s="17" t="s">
-        <v>86</v>
-      </c>
       <c r="E9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F9" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="G9" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4586,22 +4586,22 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F10" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="G10" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -4609,19 +4609,19 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D11" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="G11" s="17"/>
     </row>
@@ -4630,22 +4630,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="17" t="s">
+      <c r="E12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -4653,22 +4653,22 @@
         <v>7</v>
       </c>
       <c r="B13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="D13" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G13" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G13" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -4738,7 +4738,7 @@
       <c r="F1" s="31"/>
       <c r="G1" s="31"/>
       <c r="H1" s="32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -4769,14 +4769,14 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="23" t="s">
-        <v>21</v>
+        <v>162</v>
       </c>
       <c r="F3" s="34"/>
       <c r="G3" s="35"/>
     </row>
     <row r="4" spans="1:8" s="1" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="36" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="38"/>
       <c r="C4" s="31"/>
@@ -4796,22 +4796,22 @@
     </row>
     <row r="6" spans="1:8" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>27</v>
-      </c>
-      <c r="F6" s="24" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="24" t="s">
         <v>11</v>
@@ -4822,22 +4822,22 @@
         <v>1</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E7" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="17" t="s">
+      <c r="G7" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -4845,22 +4845,22 @@
         <v>2</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="G8" s="17" t="s">
         <v>32</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -4868,19 +4868,19 @@
         <v>3</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -4888,19 +4888,19 @@
         <v>4</v>
       </c>
       <c r="B10" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="D10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="17" t="s">
-        <v>51</v>
-      </c>
       <c r="E10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="F10" s="17" t="s">
-        <v>35</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -4909,22 +4909,22 @@
         <v>5</v>
       </c>
       <c r="B11" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="E11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="17" t="s">
         <v>54</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -4932,22 +4932,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="D12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="17" t="s">
         <v>57</v>
-      </c>
-      <c r="D12" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="17" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
